--- a/biology/Histoire de la zoologie et de la botanique/Ernst_von_Koken/Ernst_von_Koken.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Ernst_von_Koken/Ernst_von_Koken.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Ernst von Koken (1860-1912) est un zoologiste et paléontologiste allemand.
 </t>
@@ -513,10 +525,49 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>1883
-(de) Koken E., 1883. Die Reptilien der norddeutschen unteren Kreide. Zeitschrift der Deutschen geologischen Gesellschaft 35:735-827.
-1896
-(de) Koken E., 1896. Die Gastropoden der Trias um Hallstadt. Jahrbuch der Kaiserlich-Königlichen Geologischen Reichsanstalt. 46(1): 37−126.</t>
+          <t>1883</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>(de) Koken E., 1883. Die Reptilien der norddeutschen unteren Kreide. Zeitschrift der Deutschen geologischen Gesellschaft 35:735-827.</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Ernst_von_Koken</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Histoire de la zoologie et de la botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Ernst_von_Koken</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Publications</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>1896</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>(de) Koken E., 1896. Die Gastropoden der Trias um Hallstadt. Jahrbuch der Kaiserlich-Königlichen Geologischen Reichsanstalt. 46(1): 37−126.</t>
         </is>
       </c>
     </row>
